--- a/biology/Botanique/Cannelle_marron/Cannelle_marron.xlsx
+++ b/biology/Botanique/Cannelle_marron/Cannelle_marron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ocotea obtusata
 Ocotea obtusata, l'Ocotée obtuse, localement appelée Cannelle marron, est une espèce d'arbres de la famille des Lauracées, endémique des Mascareignes. Il est présent à l'île Maurice ainsi qu'à La Réunion, où il est assez commun.
@@ -512,12 +524,14 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Nom scientifique valide : Ocotea obtusata (Nees) Kosterm.[1] ;
-Nom normalisé (nom technique) FAO : Cannelle marron[2] ;
-Noms vulgaires (vulgarisation scientifique) recommandés ou typiques en français : Ocotée obtuse[3] ou Cannelle marron[3],[4],[5] ;
-Autres noms vulgaires ou noms vernaculaires (langage courant) pouvant désigner éventuellement d'autres espèces : bois de cannelle[5], bois de cannelle blanc[3],[4], bois de cannelle marron[3],[4], cannelle[3],[4],[5] (français, La Réunion).</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nom scientifique valide : Ocotea obtusata (Nees) Kosterm. ;
+Nom normalisé (nom technique) FAO : Cannelle marron ;
+Noms vulgaires (vulgarisation scientifique) recommandés ou typiques en français : Ocotée obtuse ou Cannelle marron ;
+Autres noms vulgaires ou noms vernaculaires (langage courant) pouvant désigner éventuellement d'autres espèces : bois de cannelle, bois de cannelle blanc bois de cannelle marron cannelle (français, La Réunion).</t>
         </is>
       </c>
     </row>
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce des forêts humides qui supporte un large gradient altitudinal (de 300 à 2 000 mètres) et donc thermique. En forêt mégatherme, l'arbre peut atteindre quinze mètres alors qu'en forêt mésotherme c'est plutôt un arbuste de trois à dix mètres[6]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce des forêts humides qui supporte un large gradient altitudinal (de 300 à 2 000 mètres) et donc thermique. En forêt mégatherme, l'arbre peut atteindre quinze mètres alors qu'en forêt mésotherme c'est plutôt un arbuste de trois à dix mètres
 Ses fruits ressemblent à de petits glands.
 </t>
         </is>
